--- a/uploads/templateImportDataKaryawan.xlsx
+++ b/uploads/templateImportDataKaryawan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RARA\GDI\Project\HRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B4B37-3ADD-4B0D-A8D0-6BFEA7A547CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E783323-5D8F-426A-943B-0DE03D37BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="2670" windowWidth="8890" windowHeight="7270" xr2:uid="{4C78A945-D78C-497C-A89A-D011B1C46B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C78A945-D78C-497C-A89A-D011B1C46B8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Karyawan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,31 +34,460 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>employee id</t>
-  </si>
-  <si>
-    <t>task</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Ethnic</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gender 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(M/F)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Marital Status ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tanggungan</t>
+  </si>
+  <si>
+    <t>No KTP</t>
+  </si>
+  <si>
+    <t>SIM A</t>
+  </si>
+  <si>
+    <t>SIM C</t>
+  </si>
+  <si>
+    <t>No NPWP</t>
+  </si>
+  <si>
+    <t>No BPJS</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date of Birth
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(format: yyyy-mm-dd)</t>
+    </r>
+  </si>
+  <si>
+    <t>Alamat berdasarkan KTP</t>
+  </si>
+  <si>
+    <t>Alamat Domisili</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Job Level ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Title </t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date of hired
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(format: yyyy-mm-dd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date end probation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(format: yyyy-mm-dd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date permanent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(format: yyyy-mm-dd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employee Status ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grade
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(A/B/C/D)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is Active
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1/0)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shift Type 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Reguler / Shift)</t>
+    </r>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Emergency Contact</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Bank Address</t>
+  </si>
+  <si>
+    <t>Bank Account Name</t>
+  </si>
+  <si>
+    <t>Bank Account Number</t>
+  </si>
+  <si>
+    <t>Resign Information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NBID / GDI)</t>
+    </r>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Province ID 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regency ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">District ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Village ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Province ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(based on master)</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Date Resign Letter</t>
+  </si>
+  <si>
+    <t>Date Resign Active</t>
+  </si>
+  <si>
+    <t>Resign Category</t>
+  </si>
+  <si>
+    <t>Resign Reason</t>
+  </si>
+  <si>
+    <t>Resign Exit Interview Feedback</t>
+  </si>
+  <si>
+    <t>Rara</t>
+  </si>
+  <si>
+    <t>tiarasanir@gmail.com</t>
+  </si>
+  <si>
+    <t>`087881747918</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Jawa</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>`3275004019280030</t>
+  </si>
+  <si>
+    <t>semarang</t>
+  </si>
+  <si>
+    <t>surya asri 2</t>
+  </si>
+  <si>
+    <t>Sani Tiara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +495,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -83,14 +568,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,58 +1036,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479229E-9AF3-487D-BBED-DDD55E8CA4CC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" customWidth="1"/>
+    <col min="22" max="22" width="12.26953125" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.81640625" customWidth="1"/>
+    <col min="26" max="26" width="12.7265625" customWidth="1"/>
+    <col min="27" max="27" width="12.1796875" customWidth="1"/>
+    <col min="28" max="28" width="13.26953125" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" customWidth="1"/>
+    <col min="30" max="30" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.54296875" customWidth="1"/>
+    <col min="35" max="35" width="14.36328125" customWidth="1"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="17.08984375" customWidth="1"/>
+    <col min="38" max="38" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" customWidth="1"/>
+    <col min="40" max="40" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.90625" customWidth="1"/>
+    <col min="42" max="42" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:58" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:58" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AV2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="8"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
+        <v>3132312</v>
+      </c>
+      <c r="L3">
+        <v>90090</v>
+      </c>
+      <c r="M3">
+        <v>898983</v>
+      </c>
+      <c r="N3">
+        <v>2023</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="24">
+        <v>33910</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3">
+        <v>17116</v>
+      </c>
+      <c r="S3">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>3275</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BE1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E2081EFB-1D41-4F83-A474-0A40192F4461}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>